--- a/IndiaBazar/src/test/java/com/test/Data/accntInfo.xlsx
+++ b/IndiaBazar/src/test/java/com/test/Data/accntInfo.xlsx
@@ -8,25 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\om640666\git\IndiaBazar\IndiaBazar\src\test\java\com\test\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D701C93D-95FC-4812-9B8C-EDD4FDD4B02C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0612464-6AD9-4300-AD93-6E3B5FD1280E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF1346B4-D569-4E47-945C-67E31FBD1D65}"/>
+    <workbookView xWindow="12705" yWindow="3315" windowWidth="13515" windowHeight="10890" xr2:uid="{CF1346B4-D569-4E47-945C-67E31FBD1D65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -50,10 +42,10 @@
     <t>InvalidPsw</t>
   </si>
   <si>
-    <t>IndiaBazar01!$</t>
+    <t>IndiaBazar010!$</t>
   </si>
   <si>
-    <t>tester7@gmail.com</t>
+    <t>tester8@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -420,7 +412,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,19 +457,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{82E959B4-ED65-4ED5-8E57-168D85DA44E8}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{A4001180-46D9-4103-96A8-13A7EB7CCE53}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -665,15 +654,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B9EB461-6C91-4CE7-9FB0-71B102BE3A37}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AAFA6C7-99AF-4BA3-A168-F9F85BFFF900}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="6a0e8258-6844-447a-9e2b-5659a8cd0e4b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -697,17 +697,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AAFA6C7-99AF-4BA3-A168-F9F85BFFF900}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B9EB461-6C91-4CE7-9FB0-71B102BE3A37}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="6a0e8258-6844-447a-9e2b-5659a8cd0e4b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>